--- a/medicine/Mort/Décès_en_1311/Décès_en_1311.xlsx
+++ b/medicine/Mort/Décès_en_1311/Décès_en_1311.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1311</t>
+          <t>Décès_en_1311</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -496,7 +508,7 @@
 1315
 ►►
 Cette page dresse une liste de personnalités mortes au cours de l'année 1311 :
-27 janvier[1] : Qaïchan (ou Khaichan), grand Khan des Mongols, à l’âge de 31 ans.
+27 janvier : Qaïchan (ou Khaichan), grand Khan des Mongols, à l’âge de 31 ans.
 février : Henry de Lacy, 3e comte de Lincoln et baron de Pontefract.
 7 février : Qotb al-Din Chirazi, médecin, astronome, mathématicien, philosophe, théologien, également soufi et poète perse.
 24 février: Guilhem Ruffat de Fargues, cardinal français.
@@ -509,7 +521,7 @@
 13 octobre :
 Enguerrand IV de Coucy, vicomte de Meaux, seigneur de Coucy, de Montmirail,  Crèvecœur, d'Oisy, de Marle, de La Fère, de Crépy et de Vervins.
 Aymon de Quart, évêque de Genève.
-3 novembre[2] : Hōjō Morotoki, dixième shikken du bakufu Kamakura, il dirige le Japon de 1301 à 1311.
+3 novembre : Hōjō Morotoki, dixième shikken du bakufu Kamakura, il dirige le Japon de 1301 à 1311.
 12 novembre : Robert de Coucy, architecte champenois, dont l'œuvre principale est la cathédrale Notre-Dame de Reims.
 29 novembre : Alboino della Scala, condottiere et un homme politique italien.
 6 décembre : Hōjō Sadatoki, neuvième shikken (régent) du shogunat de Kamakura et tokusō (chef du clan Hōjō) de sa nomination comme shikken.
